--- a/Respuesta.xlsx
+++ b/Respuesta.xlsx
@@ -40,52 +40,52 @@
     <t>2022 03 12</t>
   </si>
   <si>
+    <t>Descripcion 1</t>
+  </si>
+  <si>
     <t>SEGUNDO PROCESO NOVEDADES ENERO 2022</t>
   </si>
   <si>
-    <t>Novedades 1</t>
-  </si>
-  <si>
     <t>Archivo1</t>
   </si>
   <si>
     <t>2022 03 13</t>
   </si>
   <si>
+    <t>Descripcion 2</t>
+  </si>
+  <si>
     <t>SEGUNDO PROCESO NOVEDADES ENERO 2023</t>
   </si>
   <si>
-    <t>Novedades 2</t>
-  </si>
-  <si>
     <t>Archivo2</t>
   </si>
   <si>
     <t>2022 03 14</t>
   </si>
   <si>
+    <t>Descripcion 3</t>
+  </si>
+  <si>
     <t>SEGUNDO PROCESO NOVEDADES ENERO 2024</t>
   </si>
   <si>
-    <t>Novedades 3</t>
-  </si>
-  <si>
     <t>2022 03 15</t>
   </si>
   <si>
+    <t>Descripcion 4</t>
+  </si>
+  <si>
     <t>SEGUNDO PROCESO NOVEDADES ENERO 2025</t>
   </si>
   <si>
-    <t>Novedades 4</t>
-  </si>
-  <si>
     <t>2022 03 16</t>
   </si>
   <si>
+    <t>Descripcion 5</t>
+  </si>
+  <si>
     <t>SEGUNDO PROCESO NOVEDADES ENERO 2026</t>
-  </si>
-  <si>
-    <t>Novedades 5</t>
   </si>
 </sst>
 </file>
@@ -94,9 +94,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -122,16 +122,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,77 +176,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,13 +199,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -244,8 +207,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,187 +260,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,17 +454,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,37 +478,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,8 +511,34 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,8 +546,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,142 +556,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1030,7 +1030,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelRow="5" outlineLevelCol="6"/>

--- a/Respuesta.xlsx
+++ b/Respuesta.xlsx
@@ -40,7 +40,7 @@
     <t>2022/03/18</t>
   </si>
   <si>
-    <t>Descripcion 5</t>
+    <t>Descripcion 10</t>
   </si>
   <si>
     <t>TERCER PROCESO NOVEDADES ENERO 2022</t>
@@ -52,7 +52,7 @@
     <t>2022/03/19</t>
   </si>
   <si>
-    <t>Descripcion 6</t>
+    <t>Descripcion 11</t>
   </si>
   <si>
     <t>Archivo2</t>
@@ -61,19 +61,19 @@
     <t>2022/03/20</t>
   </si>
   <si>
-    <t>Descripcion 7</t>
+    <t>Descripcion 12</t>
   </si>
   <si>
     <t>2022/03/21</t>
   </si>
   <si>
-    <t>Descripcion 8</t>
+    <t>Descripcion 13</t>
   </si>
   <si>
     <t>2022/03/22</t>
   </si>
   <si>
-    <t>Descripcion 9</t>
+    <t>Descripcion 14</t>
   </si>
 </sst>
 </file>
@@ -81,8 +81,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -95,25 +95,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -121,6 +134,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,6 +155,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -143,7 +194,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -151,6 +202,28 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -165,79 +238,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -248,25 +248,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,13 +380,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,55 +410,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,79 +428,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,65 +442,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,8 +480,62 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,148 +544,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1018,7 +1018,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelRow="5" outlineLevelCol="6"/>
@@ -1064,10 +1064,10 @@
         <v>9</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1087,10 +1087,10 @@
         <v>9</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1110,10 +1110,10 @@
         <v>9</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -1130,10 +1130,10 @@
         <v>9</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1156,7 +1156,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>1</v>

--- a/Respuesta.xlsx
+++ b/Respuesta.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>Fecha</t>
   </si>
@@ -40,7 +40,7 @@
     <t>2022/03/18</t>
   </si>
   <si>
-    <t>Descripcion 10</t>
+    <t>Descripcion 15</t>
   </si>
   <si>
     <t>TERCER PROCESO NOVEDADES ENERO 2022</t>
@@ -52,7 +52,7 @@
     <t>2022/03/19</t>
   </si>
   <si>
-    <t>Descripcion 11</t>
+    <t>Descripcion 16</t>
   </si>
   <si>
     <t>Archivo2</t>
@@ -61,19 +61,19 @@
     <t>2022/03/20</t>
   </si>
   <si>
-    <t>Descripcion 12</t>
+    <t>Descripcion 17</t>
   </si>
   <si>
     <t>2022/03/21</t>
   </si>
   <si>
-    <t>Descripcion 13</t>
+    <t>Descripcion 18</t>
   </si>
   <si>
     <t>2022/03/22</t>
   </si>
   <si>
-    <t>Descripcion 14</t>
+    <t>Descripcion 19</t>
   </si>
 </sst>
 </file>
@@ -81,10 +81,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -95,15 +95,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -111,37 +112,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,8 +133,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -164,30 +172,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,41 +232,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -248,187 +248,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,11 +442,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,7 +487,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,17 +531,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,148 +544,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1018,7 +1018,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelRow="5" outlineLevelCol="6"/>
@@ -1099,7 +1099,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -1113,10 +1113,13 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1142,7 +1145,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -1156,10 +1159,13 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
